--- a/Peanut.xlsx
+++ b/Peanut.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="17520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="crédits" sheetId="1" r:id="rId1"/>
+    <sheet name="prêts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>durée du crédit</t>
   </si>
@@ -38,15 +39,46 @@
   <si>
     <t>risqué</t>
   </si>
+  <si>
+    <t>Année 1</t>
+  </si>
+  <si>
+    <t>Année 2</t>
+  </si>
+  <si>
+    <t>Année 3</t>
+  </si>
+  <si>
+    <t>Année 4</t>
+  </si>
+  <si>
+    <t>Année 5</t>
+  </si>
+  <si>
+    <t>SECURITE</t>
+  </si>
+  <si>
+    <t>TRANQUILITE</t>
+  </si>
+  <si>
+    <t>DYNAMIQUE</t>
+  </si>
+  <si>
+    <t>RENDEMENT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00000000\ &quot;€&quot;;[Red]\-#,##0.00000000\ &quot;€&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.000\ [$€-40C]_-;\-* #,##0.000\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00000\ [$€-40C]_-;\-* #,##0.00000\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -97,22 +129,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -445,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -465,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -476,9 +528,6 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -498,13 +547,13 @@
       <c r="B4" s="2">
         <v>0.05</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <f>C$1+C$1*$B4</f>
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1">
         <f>C4-C$1</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <f>E$1+E$1*$B4</f>
@@ -518,7 +567,10 @@
         <f>F4*2</f>
         <v>10</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <f>80*1.014+0.25</f>
+        <v>81.37</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
@@ -527,13 +579,13 @@
       <c r="B5" s="2">
         <v>0.06</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <f t="shared" ref="C5:E20" si="0">C$1+C$1*$B5</f>
-        <v>212</v>
+        <v>42.4</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D43" si="1">C5-C$1</f>
-        <v>12</v>
+        <v>2.3999999999999986</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
@@ -557,13 +609,13 @@
       <c r="B6" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>214</v>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>42.8</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
@@ -587,13 +639,13 @@
       <c r="B7" s="2">
         <v>0.08</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>216</v>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>43.2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>3.2000000000000028</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
@@ -617,13 +669,13 @@
       <c r="B8" s="2">
         <v>0.09</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>218</v>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>43.6</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>3.6000000000000014</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
@@ -646,13 +698,13 @@
       <c r="B9" s="2">
         <v>0.1</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>220</v>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
@@ -674,13 +726,13 @@
       <c r="B10" s="2">
         <v>0.11</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>222</v>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>44.4</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>4.3999999999999986</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
@@ -703,13 +755,13 @@
       <c r="B11" s="2">
         <v>0.12</v>
       </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>224</v>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>44.8</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>4.7999999999999972</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
@@ -732,13 +784,13 @@
       <c r="B12" s="2">
         <v>0.13</v>
       </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>226</v>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>45.2</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>5.2000000000000028</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
@@ -761,13 +813,13 @@
       <c r="B13" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>228</v>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>45.6</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>5.6000000000000014</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
@@ -789,13 +841,13 @@
       <c r="B14" s="2">
         <v>0.15</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>230</v>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
@@ -817,13 +869,13 @@
       <c r="B15" s="2">
         <v>0.16</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>232</v>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>46.4</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>6.3999999999999986</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
@@ -845,13 +897,13 @@
       <c r="B16" s="2">
         <v>0.17</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>234</v>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>46.8</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>6.7999999999999972</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
@@ -873,13 +925,13 @@
       <c r="B17" s="2">
         <v>0.18</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>236</v>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>47.2</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>7.2000000000000028</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
@@ -901,13 +953,13 @@
       <c r="B18" s="2">
         <v>0.19</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>238</v>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>47.6</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>7.6000000000000014</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
@@ -929,13 +981,13 @@
       <c r="B19" s="2">
         <v>0.2</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>240</v>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
@@ -957,13 +1009,13 @@
       <c r="B20" s="2">
         <v>0.21</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>242</v>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>48.4</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
@@ -1020,11 +1072,11 @@
       </c>
       <c r="C27" s="1">
         <f>C$1+C$1*$B27</f>
-        <v>216</v>
+        <v>43.2</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>3.2000000000000028</v>
       </c>
       <c r="E27" s="1">
         <f>E$1+E$1*$B27</f>
@@ -1044,11 +1096,11 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ref="C28:E43" si="4">C$1+C$1*$B28</f>
-        <v>218</v>
+        <v>43.6</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>3.6000000000000014</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="4"/>
@@ -1068,11 +1120,11 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="4"/>
@@ -1092,11 +1144,11 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
-        <v>222</v>
+        <v>44.4</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>4.3999999999999986</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="4"/>
@@ -1116,11 +1168,11 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
-        <v>224</v>
+        <v>44.8</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>4.7999999999999972</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="4"/>
@@ -1140,11 +1192,11 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
-        <v>226</v>
+        <v>45.2</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>5.2000000000000028</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="4"/>
@@ -1164,11 +1216,11 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
-        <v>228</v>
+        <v>45.6</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>5.6000000000000014</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="4"/>
@@ -1188,11 +1240,11 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="4"/>
@@ -1212,11 +1264,11 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
-        <v>232</v>
+        <v>46.4</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>6.3999999999999986</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="4"/>
@@ -1236,11 +1288,11 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
-        <v>234</v>
+        <v>46.8</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>6.7999999999999972</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="4"/>
@@ -1260,11 +1312,11 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
-        <v>236</v>
+        <v>47.2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>7.2000000000000028</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="4"/>
@@ -1284,11 +1336,11 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
-        <v>238</v>
+        <v>47.6</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>7.6000000000000014</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="4"/>
@@ -1308,11 +1360,11 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="4"/>
@@ -1332,11 +1384,11 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="4"/>
-        <v>242</v>
+        <v>48.4</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="4"/>
@@ -1356,11 +1408,11 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="4"/>
-        <v>244</v>
+        <v>48.8</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>8.7999999999999972</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="4"/>
@@ -1380,11 +1432,11 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="4"/>
-        <v>246</v>
+        <v>49.2</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>9.2000000000000028</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="4"/>
@@ -1404,11 +1456,11 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="4"/>
-        <v>248</v>
+        <v>49.6</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="4"/>
@@ -1428,4 +1480,188 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="10">
+        <f>B3*$C6+B3</f>
+        <v>10300</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:G3" si="0">C3*$C6+C3</f>
+        <v>10609</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
+        <v>10927.27</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" si="0"/>
+        <v>11255.088100000001</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" si="0"/>
+        <v>11592.740743</v>
+      </c>
+      <c r="H3" s="9">
+        <f>B3+B3*$H6</f>
+        <v>10600</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" ref="I3:L3" si="1">C3+C3*$H6</f>
+        <v>10918</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" si="1"/>
+        <v>11245.54</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" si="1"/>
+        <v>11582.906200000001</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" si="1"/>
+        <v>11930.393386000002</v>
+      </c>
+      <c r="M3" s="9">
+        <f>B3+B3*$M6</f>
+        <v>10900</v>
+      </c>
+      <c r="N3" s="9">
+        <f t="shared" ref="N3:Q3" si="2">C3+C3*$M6</f>
+        <v>11227</v>
+      </c>
+      <c r="O3" s="9">
+        <f t="shared" si="2"/>
+        <v>11563.81</v>
+      </c>
+      <c r="P3" s="9">
+        <f t="shared" si="2"/>
+        <v>11910.7243</v>
+      </c>
+      <c r="Q3" s="9">
+        <f t="shared" si="2"/>
+        <v>12268.046029000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="C6" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Peanut.xlsx
+++ b/Peanut.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>durée du crédit</t>
   </si>
@@ -71,12 +71,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="#,##0.00000000\ &quot;€&quot;;[Red]\-#,##0.00000000\ &quot;€&quot;"/>
     <numFmt numFmtId="173" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.000\ [$€-40C]_-;\-* #,##0.000\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00000\ [$€-40C]_-;\-* #,##0.00000\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
@@ -129,7 +130,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -138,8 +139,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -155,16 +164,25 @@
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="16">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1484,16 +1502,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="14" bestFit="1" customWidth="1"/>
@@ -1578,76 +1596,183 @@
       <c r="B3">
         <v>10000</v>
       </c>
-      <c r="C3" s="10">
-        <f>B3*$C6+B3</f>
+      <c r="C3" s="11">
+        <f>B3*$B6+B3</f>
         <v>10300</v>
       </c>
-      <c r="D3" s="10">
-        <f t="shared" ref="D3:G3" si="0">C3*$C6+C3</f>
+      <c r="D3" s="11">
+        <f>C3*$B6+C3</f>
         <v>10609</v>
       </c>
-      <c r="E3" s="10">
-        <f t="shared" si="0"/>
+      <c r="E3" s="11">
+        <f>D3*$B6+D3</f>
         <v>10927.27</v>
       </c>
-      <c r="F3" s="10">
-        <f t="shared" si="0"/>
+      <c r="F3" s="11">
+        <f>E3*$B6+E3</f>
         <v>11255.088100000001</v>
       </c>
-      <c r="G3" s="10">
-        <f t="shared" si="0"/>
+      <c r="G3" s="11">
+        <f>F3*$B6+F3</f>
         <v>11592.740743</v>
       </c>
-      <c r="H3" s="9">
-        <f>B3+B3*$H6</f>
+      <c r="H3" s="10">
+        <f>B3+B3*$C6</f>
         <v>10600</v>
       </c>
-      <c r="I3" s="9">
-        <f t="shared" ref="I3:L3" si="1">C3+C3*$H6</f>
+      <c r="I3" s="10">
+        <f>C3+C3*$C6</f>
         <v>10918</v>
       </c>
-      <c r="J3" s="9">
-        <f t="shared" si="1"/>
+      <c r="J3" s="10">
+        <f>D3+D3*$C6</f>
         <v>11245.54</v>
       </c>
-      <c r="K3" s="9">
-        <f t="shared" si="1"/>
+      <c r="K3" s="10">
+        <f>E3+E3*$C6</f>
         <v>11582.906200000001</v>
       </c>
-      <c r="L3" s="9">
-        <f t="shared" si="1"/>
+      <c r="L3" s="10">
+        <f>F3+F3*$C6</f>
         <v>11930.393386000002</v>
       </c>
-      <c r="M3" s="9">
-        <f>B3+B3*$M6</f>
+      <c r="M3" s="10">
+        <f>B3+B3*$D6</f>
         <v>10900</v>
       </c>
-      <c r="N3" s="9">
-        <f t="shared" ref="N3:Q3" si="2">C3+C3*$M6</f>
+      <c r="N3" s="10">
+        <f>C3+C3*$D6</f>
         <v>11227</v>
       </c>
-      <c r="O3" s="9">
-        <f t="shared" si="2"/>
+      <c r="O3" s="10">
+        <f>D3+D3*$D6</f>
         <v>11563.81</v>
       </c>
-      <c r="P3" s="9">
-        <f t="shared" si="2"/>
+      <c r="P3" s="10">
+        <f>E3+E3*$D6</f>
         <v>11910.7243</v>
       </c>
-      <c r="Q3" s="9">
-        <f t="shared" si="2"/>
+      <c r="Q3" s="10">
+        <f>F3+F3*$D6</f>
         <v>12268.046029000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="B6" s="8">
+        <v>0.03</v>
+      </c>
       <c r="C6" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="H6" s="8">
         <v>0.06</v>
       </c>
-      <c r="M6" s="8">
+      <c r="D6" s="8">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9">
+        <f>B9*B$6+B9</f>
+        <v>10300</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:D14" si="0">C9*C$6+C9</f>
+        <v>10600</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>16350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" ref="B11:B14" si="1">B10*B$6+B10</f>
+        <v>10609</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>11236</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>17821.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" si="1"/>
+        <v>10927.27</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>11910.16</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>19425.435000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" si="1"/>
+        <v>11255.088100000001</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>12624.7696</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>21173.724150000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" si="1"/>
+        <v>11592.740743</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>13382.255776</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>23079.359323500001</v>
       </c>
     </row>
   </sheetData>
